--- a/medicine/Enfance/Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve/Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve.xlsx
+++ b/medicine/Enfance/Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve/Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Capitaines courageux, une histoire du banc de Terre-Neuve (en anglais Captains Courageous), le plus souvent abrégé sous le titre Capitaines courageux, est un roman de Rudyard Kipling publié en 1897.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récit décrit la rencontre d'un fils de millionnaire de quatorze ans, Harvey Cheyne, avec des pêcheurs du banc de Terre-Neuve. Le jeune garçon tombe à l'eau lors d'une traversée de l'Atlantique et est recueilli par les pêcheurs. Il apprend alors leur métier et finit par retrouver sa famille qui le croyait noyé.
 </t>
@@ -545,16 +559,123 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
-1937 : Capitaines courageux (Captains Courageous), film américain réalisé par Victor Fleming, produit par Louis D. Lighton (en), avec Spencer Tracy, Freddie Bartholomew, Lionel Barrymore, Melvyn Douglas, Mickey Rooney et John Carradine
-1994 : Cabin Boy, film américain réalisé par Adam Resnick qui adapte librement des passages du roman de Kipling
-Télévision
-1977 : Capitaines courageux (Captains Courageous), téléfilm américain réalisé par Harvey Hart, avec Karl Malden, Ricardo Montalbán, Fritz Weaver, Fred Gwynne et Neville Brand
-1996 : Capitaines courageux (Captains Courageous), téléfilm canado-américain réalisé par Michael Anderson, avec Robert Urich, Kenny Vadas, Kaj-Erik Eriksen, Sandra Nelson (en) et Colin Cunningham
-Comédie musicale
-1999 : Captains Courageous : The Musical, une production Off-Broadway du Manhattan Theatre Club
-En littérature
-1997 : The Billion Dollar Boy (en), roman de science-fiction écrit par Charles Sheffield qui reprend le récit de Kipling sous le mode du space opera</t>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1937 : Capitaines courageux (Captains Courageous), film américain réalisé par Victor Fleming, produit par Louis D. Lighton (en), avec Spencer Tracy, Freddie Bartholomew, Lionel Barrymore, Melvyn Douglas, Mickey Rooney et John Carradine
+1994 : Cabin Boy, film américain réalisé par Adam Resnick qui adapte librement des passages du roman de Kipling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1977 : Capitaines courageux (Captains Courageous), téléfilm américain réalisé par Harvey Hart, avec Karl Malden, Ricardo Montalbán, Fritz Weaver, Fred Gwynne et Neville Brand
+1996 : Capitaines courageux (Captains Courageous), téléfilm canado-américain réalisé par Michael Anderson, avec Robert Urich, Kenny Vadas, Kaj-Erik Eriksen, Sandra Nelson (en) et Colin Cunningham</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comédie musicale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1999 : Captains Courageous : The Musical, une production Off-Broadway du Manhattan Theatre Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capitaines_courageux,_une_histoire_du_banc_de_Terre-Neuve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1997 : The Billion Dollar Boy (en), roman de science-fiction écrit par Charles Sheffield qui reprend le récit de Kipling sous le mode du space opera</t>
         </is>
       </c>
     </row>
